--- a/MissFrame/LuBan/Config/Datas/__tables__.xlsx
+++ b/MissFrame/LuBan/Config/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -143,6 +143,24 @@
   </si>
   <si>
     <t>ProjectExcel/ShowEffectPath@MissionStep.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.TbTweenLookAt</t>
+  </si>
+  <si>
+    <t>CfgTweenLookAtData</t>
+  </si>
+  <si>
+    <t>ProjectExcel/TweenLookAt@MissionStep.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.TbTweenMove</t>
+  </si>
+  <si>
+    <t>CfgTweenMoveData</t>
+  </si>
+  <si>
+    <t>ProjectExcel/TweenMove@MissionStep.xlsx</t>
   </si>
   <si>
     <t>Cfg.TbResPrefabAsset</t>
@@ -323,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +351,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,16 +667,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,10 +688,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,28 +712,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -721,16 +745,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,38 +763,41 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +805,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,23 +1129,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="24.9166666666667" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="41.1666666666667" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1194,7 +1223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:5">
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1234,7 +1263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:5">
+    <row r="5" customFormat="1" customHeight="1" spans="2:5">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -1248,7 +1277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:5">
+    <row r="6" customFormat="1" customHeight="1" spans="2:5">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1262,7 +1291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" customHeight="1" spans="2:5">
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -1276,7 +1305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" customFormat="1" customHeight="1" spans="2:5">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -1288,6 +1317,34 @@
       </c>
       <c r="E8" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/MissFrame/LuBan/Config/Datas/__tables__.xlsx
+++ b/MissFrame/LuBan/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="28800" windowHeight="12410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/MissFrame/LuBan/Config/Datas/__tables__.xlsx
+++ b/MissFrame/LuBan/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12410"/>
+    <workbookView windowWidth="24930" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>ProjectExcel/TweenMove@MissionStep.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.TbScannerShader</t>
+  </si>
+  <si>
+    <t>CfgScannerShaderData</t>
+  </si>
+  <si>
+    <t>ProjectExcel/ScannerShader@MissionStep.xlsx</t>
   </si>
   <si>
     <t>Cfg.TbResPrefabAsset</t>
@@ -1129,12 +1138,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1333,18 +1342,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="2:5">
-      <c r="B10" s="3" t="s">
+    <row r="10" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="b">
+      <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/MissFrame/LuBan/Config/Datas/__tables__.xlsx
+++ b/MissFrame/LuBan/Config/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>ProjectExcel/ScannerShader@MissionStep.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.TbHighlight</t>
+  </si>
+  <si>
+    <t>CfgHighlightData</t>
+  </si>
+  <si>
+    <t>ProjectExcel/Highlight@MissionStep.xlsx</t>
   </si>
   <si>
     <t>Cfg.TbResPrefabAsset</t>
@@ -1138,12 +1147,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1356,18 +1365,32 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="2:5">
-      <c r="B11" s="3" t="s">
+    <row r="11" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3" t="b">
+      <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
